--- a/exampleProblems/ch9_089/ch9_089.xlsx
+++ b/exampleProblems/ch9_089/ch9_089.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsmw51/Library/CloudStorage/OneDrive-DurhamUniversity/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_089/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497194CA-F789-2347-BE51-A707AC48C8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74514327-BF1A-B242-AAEA-CA9DDD97CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="880" windowWidth="20300" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9760" yWindow="1460" windowWidth="20300" windowHeight="13620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
     <sheet name="H1_1D" sheetId="1" r:id="rId2"/>
-    <sheet name="HSQC" sheetId="4" r:id="rId3"/>
-    <sheet name="COSY" sheetId="5" r:id="rId4"/>
-    <sheet name="HMBC" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="C13_1D" sheetId="2" r:id="rId7"/>
-    <sheet name="H1_pureshift" sheetId="3" r:id="rId8"/>
+    <sheet name="H1_pureshift" sheetId="3" r:id="rId3"/>
+    <sheet name="C13_1D" sheetId="2" r:id="rId4"/>
+    <sheet name="COSY" sheetId="5" r:id="rId5"/>
+    <sheet name="HSQC" sheetId="4" r:id="rId6"/>
+    <sheet name="HMBC" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
     <sheet name="NOESY" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -895,240 +895,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.15</v>
+        <v>7.65</v>
       </c>
       <c r="C2" s="1">
-        <v>38.299999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.2</v>
+        <v>1.76</v>
       </c>
       <c r="E2" s="1">
-        <v>10.63</v>
-      </c>
-      <c r="F2" s="1">
-        <v>35.96</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.57</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>9.57</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="H2" s="1"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.91</v>
+        <v>7.58</v>
       </c>
       <c r="C3" s="1">
-        <v>38.299999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.2</v>
+        <v>1.61</v>
       </c>
       <c r="E3" s="1">
-        <v>10.63</v>
-      </c>
-      <c r="F3" s="1">
-        <v>35.96</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.57</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>14.49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="H3" s="1"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.91</v>
+        <v>7.29</v>
       </c>
       <c r="C4" s="1">
-        <v>58.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>1.46</v>
       </c>
       <c r="E4" s="1">
-        <v>18.68</v>
-      </c>
-      <c r="F4" s="1">
-        <v>38.54</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.34</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>19.41</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6.72</v>
+        <v>6.98</v>
       </c>
       <c r="C5" s="1">
-        <v>124.4</v>
+        <v>1.4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="1">
-        <v>26.73</v>
-      </c>
-      <c r="F5" s="1">
-        <v>41.12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9.11</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>24.33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6.82</v>
+        <v>6.96</v>
       </c>
       <c r="C6" s="1">
-        <v>119.7</v>
+        <v>1.7</v>
       </c>
       <c r="D6" s="1">
-        <v>0.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>34.78</v>
-      </c>
-      <c r="F6" s="1">
-        <v>43.7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11.88</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>29.25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6.89</v>
+        <v>6.53</v>
       </c>
       <c r="C7" s="1">
-        <v>119.2</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="E7" s="1">
-        <v>34.78</v>
-      </c>
-      <c r="F7" s="1">
-        <v>43.7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>11.88</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>34.17</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1137,11 +1090,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1150,11 +1101,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1163,11 +1112,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1176,31 +1123,327 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="J14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="J15" s="1"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="1"/>
+      <c r="I11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>381</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2520.89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>157.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>737.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2812.18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>138.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2383.0100000000002</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2086.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9387.2800000000007</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2167.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9318.34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2659.36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11335.34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>125.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3151.47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13352.34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3643.58</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15369.34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4135.6899999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17386.34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1208,12 +1451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1267,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2.91</v>
+        <v>6.53</v>
       </c>
       <c r="C2" s="1">
-        <v>3.15</v>
+        <v>7.65</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1300,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.91</v>
+        <v>6.98</v>
       </c>
       <c r="C3" s="1">
-        <v>3.91</v>
+        <v>7.29</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1333,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.15</v>
+        <v>6.96</v>
       </c>
       <c r="C4" s="1">
-        <v>3.91</v>
+        <v>7.29</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1366,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6.72</v>
+        <v>6.98</v>
       </c>
       <c r="C5" s="1">
-        <v>6.89</v>
+        <v>7.58</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1395,33 +1638,15 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.72</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.29</v>
-      </c>
-      <c r="F6" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>24.96</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="U6" s="1"/>
@@ -1809,12 +2034,326 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>138.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="F2" s="1">
+        <v>35.96</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="C3" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35.96</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18.68</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38.54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26.73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41.12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="C6" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>34.78</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>34.78</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="J14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="J15" s="1"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1868,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2.91</v>
+        <v>7.65</v>
       </c>
       <c r="C2" s="1">
-        <v>58.7</v>
+        <v>178.8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1886,10 +2425,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.91</v>
+        <v>7.65</v>
       </c>
       <c r="C3" s="1">
-        <v>119.7</v>
+        <v>157.1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1905,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2.91</v>
+        <v>7.65</v>
       </c>
       <c r="C4" s="1">
-        <v>124.4</v>
+        <v>130.9</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1923,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2.91</v>
+        <v>7.65</v>
       </c>
       <c r="C5" s="1">
-        <v>130.30000000000001</v>
+        <v>127.2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1942,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2.91</v>
+        <v>7.58</v>
       </c>
       <c r="C6" s="1">
-        <v>176.9</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1960,10 +2499,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3.15</v>
+        <v>7.58</v>
       </c>
       <c r="C7" s="1">
-        <v>58.7</v>
+        <v>138.4</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1979,10 +2518,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.15</v>
+        <v>7.58</v>
       </c>
       <c r="C8" s="1">
-        <v>119.7</v>
+        <v>138.4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1998,10 +2537,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3.15</v>
+        <v>7.29</v>
       </c>
       <c r="C9" s="1">
-        <v>124.4</v>
+        <v>130.9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2017,10 +2556,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3.15</v>
+        <v>7.29</v>
       </c>
       <c r="C10" s="1">
-        <v>130.30000000000001</v>
+        <v>157.1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2036,10 +2575,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.15</v>
+        <v>6.98</v>
       </c>
       <c r="C11" s="1">
-        <v>176.9</v>
+        <v>119.1</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="9"/>
@@ -2055,10 +2594,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.91</v>
+        <v>6.98</v>
       </c>
       <c r="C12" s="1">
-        <v>38.299999999999997</v>
+        <v>125.3</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2074,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.91</v>
+        <v>6.96</v>
       </c>
       <c r="C13" s="1">
-        <v>130.30000000000001</v>
+        <v>123.6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2093,10 +2632,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3.91</v>
+        <v>6.96</v>
       </c>
       <c r="C14" s="1">
-        <v>176.9</v>
+        <v>157.1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2112,10 +2651,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6.72</v>
+        <v>6.53</v>
       </c>
       <c r="C15" s="1">
-        <v>38.299999999999997</v>
+        <v>125.3</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2131,10 +2670,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>6.72</v>
+        <v>6.53</v>
       </c>
       <c r="C16" s="1">
-        <v>119.7</v>
+        <v>178.8</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2146,15 +2685,9 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6.72</v>
-      </c>
-      <c r="C17" s="1">
-        <v>146.19999999999999</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2165,15 +2698,9 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="C18" s="1">
-        <v>146.19999999999999</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2184,15 +2711,9 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="C19" s="1">
-        <v>124.4</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2203,15 +2724,9 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6.89</v>
-      </c>
-      <c r="C20" s="1">
-        <v>147.1</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2222,15 +2737,9 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6.89</v>
-      </c>
-      <c r="C21" s="1">
-        <v>130.30000000000001</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2558,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2566,565 +3075,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>176.9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>381</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2520.89</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>147.1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>737.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2812.18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>146.19999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>543.29999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2383.0100000000002</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>130.30000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2086.1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9387.2800000000007</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>124.4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2167.25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9318.34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>119.7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2659.36</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11335.34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>119.2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3151.47</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13352.34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>58.7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3643.58</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15369.34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4135.6899999999996</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17386.34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.89</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.76</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9.57</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.61</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14.49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6.72</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="E4" s="1">
-        <v>19.41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.91</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>24.33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>29.25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.91</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="E7" s="1">
-        <v>34.17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
